--- a/data/dates.xlsx
+++ b/data/dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://organspendech-my.sharepoint.com/personal/simon_schwab_swisstransplant_org/Documents/Projects/rcookbook/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{20C4BD3A-3115-4C75-A023-EDBC5CD52667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBF9E841-E996-4F1F-B820-864B758DA9F1}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{564C5621-6602-44B9-AA50-DD722D868F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18E220FB-C947-4C82-955F-7C4007EF1E19}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="1170" windowWidth="29940" windowHeight="19830" xr2:uid="{CE39DE9D-E0ED-465F-8125-776EBD1DE067}"/>
+    <workbookView xWindow="5580" yWindow="4365" windowWidth="24165" windowHeight="17445" xr2:uid="{CE39DE9D-E0ED-465F-8125-776EBD1DE067}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,12 +407,12 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -422,12 +422,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44430</v>
+        <v>44430.696539351855</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44974</v>
+        <v>44974.925023148149</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/data/dates.xlsx
+++ b/data/dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://organspendech-my.sharepoint.com/personal/simon_schwab_swisstransplant_org/Documents/Projects/rcookbook/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{564C5621-6602-44B9-AA50-DD722D868F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18E220FB-C947-4C82-955F-7C4007EF1E19}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{564C5621-6602-44B9-AA50-DD722D868F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9372E8C0-A6EA-4178-8710-F08DE3FFE3D2}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="4365" windowWidth="24165" windowHeight="17445" xr2:uid="{CE39DE9D-E0ED-465F-8125-776EBD1DE067}"/>
+    <workbookView xWindow="5580" yWindow="3555" windowWidth="24165" windowHeight="17445" xr2:uid="{CE39DE9D-E0ED-465F-8125-776EBD1DE067}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>mydate</t>
   </si>
   <si>
-    <t>11.03.1980</t>
+    <t>11.03.1980 11:11:11</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
